--- a/samples/sample_input.xlsx
+++ b/samples/sample_input.xlsx
@@ -15,60 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>SomeIntegers</t>
-  </si>
-  <si>
-    <t>SomeDecimals</t>
-  </si>
-  <si>
-    <t>SomeWords</t>
-  </si>
-  <si>
-    <t>SomeEnums</t>
-  </si>
-  <si>
-    <t>SomeInt&gt;5</t>
-  </si>
-  <si>
-    <t>SomeDec&lt;4</t>
-  </si>
-  <si>
-    <t>SomeEnumsIsValid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>InputInt1</t>
+  </si>
+  <si>
+    <t>InputInt2</t>
+  </si>
+  <si>
+    <t>InputDec1</t>
+  </si>
+  <si>
+    <t>InputDec2</t>
+  </si>
+  <si>
+    <t>InputStr1</t>
+  </si>
+  <si>
+    <t>InputEnum1</t>
+  </si>
+  <si>
+    <t>OutputInt1</t>
+  </si>
+  <si>
+    <t>OutputDec1</t>
   </si>
   <si>
     <t>Hello</t>
   </si>
   <si>
-    <t>enumVal1</t>
+    <t>Enum1Val1</t>
   </si>
   <si>
     <t>World</t>
   </si>
   <si>
-    <t>enumVal2</t>
+    <t>Enum1Val2</t>
   </si>
   <si>
     <t>foo</t>
   </si>
   <si>
-    <t>enumVal3</t>
+    <t>Enum1Val3</t>
   </si>
   <si>
     <t>bar</t>
   </si>
   <si>
-    <t>foobar</t>
-  </si>
-  <si>
-    <t>enumVal4</t>
-  </si>
-  <si>
-    <t>invalidValue</t>
-  </si>
-  <si>
-    <t>anotherInvalid</t>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>fizz</t>
+  </si>
+  <si>
+    <t>buzz</t>
+  </si>
+  <si>
+    <t>aWrongVal</t>
+  </si>
+  <si>
+    <t>a string</t>
+  </si>
+  <si>
+    <t>another wrong</t>
+  </si>
+  <si>
+    <t>EnumVal11</t>
   </si>
 </sst>
 </file>
@@ -83,6 +95,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,7 +155,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -203,19 +220,31 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,13 +252,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>2.22</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,13 +275,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>3.333</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,13 +298,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>4.4444</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
+      <c r="G5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,35 +321,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>5.55555</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>6.666666</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C8" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>7.7777777</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>15</v>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,10 +381,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>8.88888888</v>
-      </c>
-      <c r="D9" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,10 +399,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>9.999999999</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>17</v>
+      <c r="F10" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,6 +416,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>10.101010101</v>
       </c>
     </row>

--- a/samples/sample_input.xlsx
+++ b/samples/sample_input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>InputInt1</t>
   </si>
@@ -41,6 +41,12 @@
     <t>OutputDec1</t>
   </si>
   <si>
+    <t>AutoFill1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -71,16 +77,13 @@
     <t>buzz</t>
   </si>
   <si>
-    <t>aWrongVal</t>
-  </si>
-  <si>
     <t>a string</t>
   </si>
   <si>
-    <t>another wrong</t>
-  </si>
-  <si>
     <t>EnumVal11</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -155,11 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -223,6 +222,9 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -234,14 +236,14 @@
       <c r="C2" s="0" t="n">
         <v>1.1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1.1</v>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
@@ -261,10 +263,10 @@
         <v>2.22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>4</v>
@@ -284,10 +286,10 @@
         <v>3.333</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0</v>
@@ -307,10 +309,10 @@
         <v>4.4444</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>4</v>
@@ -327,10 +329,10 @@
         <v>5.55555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>20</v>
@@ -347,10 +349,10 @@
         <v>6.666666</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>30</v>
@@ -367,13 +369,13 @@
         <v>7.7777777</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,9 +389,9 @@
         <v>8.8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -423,6 +425,11 @@
       </c>
       <c r="D11" s="0" t="n">
         <v>10.101010101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/samples/sample_input.xlsx
+++ b/samples/sample_input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>InputInt1</t>
   </si>
@@ -44,6 +44,9 @@
     <t>AutoFill1</t>
   </si>
   <si>
+    <t>NotRequired</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>baz</t>
   </si>
   <si>
+    <t>EnumVal1</t>
+  </si>
+  <si>
     <t>fizz</t>
   </si>
   <si>
@@ -83,7 +89,7 @@
     <t>EnumVal11</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>lonely</t>
   </si>
 </sst>
 </file>
@@ -180,10 +186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -225,6 +231,9 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -237,16 +246,19 @@
         <v>1.1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,13 +275,16 @@
         <v>2.22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,13 +301,16 @@
         <v>3.333</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,13 +327,16 @@
         <v>4.4444</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>10.222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,13 +350,16 @@
         <v>5.55555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,10 +373,10 @@
         <v>6.666666</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>30</v>
@@ -369,13 +393,13 @@
         <v>7.7777777</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +413,7 @@
         <v>8.8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -410,7 +434,7 @@
         <v>9.999999999</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +453,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
